--- a/003 轮播图整理/儿-童-发-展-评-估-量-表.xlsx
+++ b/003 轮播图整理/儿-童-发-展-评-估-量-表.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\OnlyTest\003 轮播图整理\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10845" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一     岁" sheetId="1" r:id="rId1"/>
-    <sheet name="二     岁" sheetId="2" r:id="rId2"/>
-    <sheet name="三     岁" sheetId="3" r:id="rId3"/>
-    <sheet name="四     岁" sheetId="4" r:id="rId4"/>
-    <sheet name="五     岁" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="二     岁" sheetId="2" r:id="rId3"/>
+    <sheet name="三     岁" sheetId="3" r:id="rId4"/>
+    <sheet name="四     岁" sheetId="4" r:id="rId5"/>
+    <sheet name="五     岁" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="267">
   <si>
     <r>
       <t>1.</t>
@@ -3697,6 +3698,12 @@
       </rPr>
       <t>米，四投两中）</t>
     </r>
+  </si>
+  <si>
+    <t>一岁儿童发展评估量表</t>
+  </si>
+  <si>
+    <t>二岁儿童发展评估量表</t>
   </si>
 </sst>
 </file>
@@ -5486,1391 +5493,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="str">
-        <f>SUBSTITUTE( REPLACE(D1,1,2,""),".","")</f>
-        <v>能抬起双手来配合穿衣服</v>
-      </c>
-      <c r="F1" t="str">
-        <f>"insert into invest_quiz_question set ShortDes='"&amp;E1&amp;"',classID="&amp;B1&amp;",quizID=589;"</f>
-        <v>insert into invest_quiz_question set ShortDes='能抬起双手来配合穿衣服',classID=1,quizID=589;</v>
-      </c>
-      <c r="G1" t="str">
-        <f>"insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID="&amp;H1&amp;";insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID="&amp;H1&amp;";"</f>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=1;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=1;</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E52" si="0">SUBSTITUTE( REPLACE(D2,1,2,""),".","")</f>
-        <v>当其他儿童在场玩时，能引起他的注视</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F52" si="1">"insert into invest_quiz_question set ShortDes='"&amp;E2&amp;"',classID="&amp;B2&amp;",quizID=589;"</f>
-        <v>insert into invest_quiz_question set ShortDes='当其他儿童在场玩时，能引起他的注视',classID=1,quizID=589;</v>
-      </c>
-      <c r="G2" t="str">
-        <f t="shared" ref="G2:G52" si="2">"insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID="&amp;H2&amp;";insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID="&amp;H2&amp;";"</f>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=2;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=2;</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="0"/>
-        <v>对自己在镜子里的像很感兴趣</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='对自己在镜子里的像很感兴趣',classID=1,quizID=589;</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=3;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=3;</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>能脱袜子，但不能脱鞋子</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能脱袜子，但不能脱鞋子',classID=1,quizID=589;</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=4;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=4;</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>能独自用水杯喝水</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能独自用水杯喝水',classID=1,quizID=589;</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=5;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=5;</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>能遵从二、三种简单要求</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能遵从二、三种简单要求',classID=1,quizID=589;</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=6;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=6;</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>能自己使用勺子吃东西（可有一些漏洒）</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能自己使用勺子吃东西（可有一些漏洒）',classID=1,quizID=589;</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=7;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=7;</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>懂得亲吻玩具娃娃或玩具熊</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='懂得亲吻玩具娃娃或玩具熊',classID=1,quizID=589;</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=8;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=8;</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>能帮助收拾玩具</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能帮助收拾玩具',classID=1,quizID=589;</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=9;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=9;</v>
-      </c>
-      <c r="H9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>对捉迷藏有兴趣</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='对捉迷藏有兴趣',classID=1,quizID=589;</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=10;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=10;</v>
-      </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>在熟悉的人那里可呆一会儿</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='在熟悉的人那里可呆一会儿',classID=1,quizID=589;</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=11;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=11;</v>
-      </c>
-      <c r="H11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>能脱衣服（不一定能解扣子）</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能脱衣服（不一定能解扣子）',classID=1,quizID=589;</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=12;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=12;</v>
-      </c>
-      <c r="H12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>能够摹仿周围的声音</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能够摹仿周围的声音',classID=2,quizID=589;</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=13;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=13;</v>
-      </c>
-      <c r="H13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>能够摹仿两个简单的词</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能够摹仿两个简单的词',classID=2,quizID=589;</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=14;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=14;</v>
-      </c>
-      <c r="H14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>在问他时，能够指出身体的一个部位</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='在问他时，能够指出身体的一个部位',classID=2,quizID=589;</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=15;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=15;</v>
-      </c>
-      <c r="H15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>能主动讲出两个字的简单的词</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能主动讲出两个字的简单的词',classID=2,quizID=589;</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=16;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=16;</v>
-      </c>
-      <c r="H16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>能够指出什么是鞋、衣服或玩具</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能够指出什么是鞋、衣服或玩具',classID=2,quizID=589;</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=17;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=17;</v>
-      </c>
-      <c r="H17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>能讲五个词汇</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能讲五个词汇',classID=2,quizID=589;</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=18;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=18;</v>
-      </c>
-      <c r="H18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>能够在画册上指出三种不同的东西</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能够在画册上指出三种不同的东西',classID=2,quizID=589;</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=19;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=19;</v>
-      </c>
-      <c r="H19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>能够讲出听到的个别的词</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能够讲出听到的个别的词',classID=2,quizID=589;</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=20;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=20;</v>
-      </c>
-      <c r="H20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>当被问到有什么要求时能说出三个愿望</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='当被问到有什么要求时能说出三个愿望',classID=2,quizID=589;</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=21;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=21;</v>
-      </c>
-      <c r="H21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>在询问下可以讲出身边发生的三件事</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='在询问下可以讲出身边发生的三件事',classID=2,quizID=589;</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=22;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=22;</v>
-      </c>
-      <c r="H22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3">
-        <v>11</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>能讲出两个词的短句</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能讲出两个词的短句',classID=2,quizID=589;</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=23;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=23;</v>
-      </c>
-      <c r="H23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>会翻着看画册</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='会翻着看画册',classID=2,quizID=589;</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=24;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=24;</v>
-      </c>
-      <c r="H24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>会敲打、碰击两个以上的小木块</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='会敲打、碰击两个以上的小木块',classID=3,quizID=589;</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=25;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=25;</v>
-      </c>
-      <c r="H25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>试图摹仿涂划（在纸或其它东西上乱画）</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='试图摹仿涂划（在纸或其它东西上乱画）',classID=3,quizID=589;</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=26;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=26;</v>
-      </c>
-      <c r="H26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>会将不同形状的木块放入模板（嵌板）中适当的位置</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='会将不同形状的木块放入模板（嵌板）中适当的位置',classID=3,quizID=589;</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=27;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=27;</v>
-      </c>
-      <c r="H27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>自己用笔涂涂画画</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='自己用笔涂涂画画',classID=3,quizID=589;</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=28;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=28;</v>
-      </c>
-      <c r="H28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>能够说出玩具娃娃的四个以上的部位</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能够说出玩具娃娃的四个以上的部位',classID=3,quizID=589;</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=29;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=29;</v>
-      </c>
-      <c r="H29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>有开始使用家庭用品的迹象（如：拿勺或碗）</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='有开始使用家庭用品的迹象（如：拿勺或碗）',classID=3,quizID=589;</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=30;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=30;</v>
-      </c>
-      <c r="H30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="3">
-        <v>3</v>
-      </c>
-      <c r="C31" s="3">
-        <v>7</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>能按照要求指出两个人</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能按照要求指出两个人',classID=3,quizID=589;</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=31;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=31;</v>
-      </c>
-      <c r="H31">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>使用两个小棍子摹仿击鼓动作</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='使用两个小棍子摹仿击鼓动作',classID=3,quizID=589;</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=32;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=32;</v>
-      </c>
-      <c r="H32">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="3">
-        <v>3</v>
-      </c>
-      <c r="C33" s="3">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>能够认识身边或画书上的七件东</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能够认识身边或画书上的七件东',classID=3,quizID=589;</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=33;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=33;</v>
-      </c>
-      <c r="H33">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='',classID=3,quizID=589;</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=34;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=34;</v>
-      </c>
-      <c r="H34">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="3">
-        <v>3</v>
-      </c>
-      <c r="C35" s="3">
-        <v>11</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>能够把三个大小不同的碗或杯子套叠起来</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能够把三个大小不同的碗或杯子套叠起来',classID=3,quizID=589;</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=35;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=35;</v>
-      </c>
-      <c r="H35">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>能指出玩具娃娃的五个部分（眼睛、鼻子、手、腿、头发）</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能指出玩具娃娃的五个部分（眼睛、鼻子、手、腿、头发）',classID=3,quizID=589;</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=36;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=36;</v>
-      </c>
-      <c r="H36">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="3">
-        <v>4</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>会用食指准确地触摸小的东西</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='会用食指准确地触摸小的东西',classID=4,quizID=589;</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=37;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=37;</v>
-      </c>
-      <c r="H37">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>有目的的拿画笔，但不很准确</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='有目的的拿画笔，但不很准确',classID=4,quizID=589;</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=38;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=38;</v>
-      </c>
-      <c r="H38">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="3">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3">
-        <v>3</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>会摹仿把小豆子（或小扣子）丢进瓶子里</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='会摹仿把小豆子（或小扣子）丢进瓶子里',classID=4,quizID=589;</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=39;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=39;</v>
-      </c>
-      <c r="H39">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>会打开盒子的盖子</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='会打开盒子的盖子',classID=4,quizID=589;</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=40;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=40;</v>
-      </c>
-      <c r="H40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="3">
-        <v>4</v>
-      </c>
-      <c r="C41" s="3">
-        <v>5</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>用三块小木块搭一座“塔”</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='用三块小木块搭一座“塔”',classID=4,quizID=589;</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=41;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=41;</v>
-      </c>
-      <c r="H41">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>6</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>会剥糖纸（不一定能剥开）</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='会剥糖纸（不一定能剥开）',classID=4,quizID=589;</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=42;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=42;</v>
-      </c>
-      <c r="H42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="3">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3">
-        <v>7</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>能一页一页地翻书</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能一页一页地翻书',classID=4,quizID=589;</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=43;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=43;</v>
-      </c>
-      <c r="H43">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>能穿三个直径约为24mm的珠子</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='能穿三个直径约为24mm的珠子',classID=4,quizID=589;</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=44;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=44;</v>
-      </c>
-      <c r="H44">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="3">
-        <v>5</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>不用扶自己坐一会儿</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='不用扶自己坐一会儿',classID=5,quizID=589;</v>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=45;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=45;</v>
-      </c>
-      <c r="H45">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>5</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v>自己跑一会儿</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='自己跑一会儿',classID=5,quizID=589;</v>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=46;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=46;</v>
-      </c>
-      <c r="H46">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="3">
-        <v>5</v>
-      </c>
-      <c r="C47" s="3">
-        <v>3</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="0"/>
-        <v>扔球或踢球（不一定准确）</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='扔球或踢球（不一定准确）',classID=5,quizID=589;</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=47;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=47;</v>
-      </c>
-      <c r="H47">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>5</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="0"/>
-        <v>不用扶着墙或家具，从坐在地上站起来</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='不用扶着墙或家具，从坐在地上站起来',classID=5,quizID=589;</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=48;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=48;</v>
-      </c>
-      <c r="H48">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="3">
-        <v>5</v>
-      </c>
-      <c r="C49" s="3">
-        <v>5</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="0"/>
-        <v>独自跑动</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='独自跑动',classID=5,quizID=589;</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=49;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=49;</v>
-      </c>
-      <c r="H49">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>5</v>
-      </c>
-      <c r="C50">
-        <v>6</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v>扶着上楼梯（得有人跟随着）</v>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='扶着上楼梯（得有人跟随着）',classID=5,quizID=589;</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=50;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=50;</v>
-      </c>
-      <c r="H50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="3">
-        <v>5</v>
-      </c>
-      <c r="C51" s="3">
-        <v>7</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" si="0"/>
-        <v>走得很好，仅仅偶尔会跌倒</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='走得很好，仅仅偶尔会跌倒',classID=5,quizID=589;</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=51;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=51;</v>
-      </c>
-      <c r="H51">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>5</v>
-      </c>
-      <c r="C52">
-        <v>8</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v>蹲着玩，不用手扶</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into invest_quiz_question set ShortDes='蹲着玩，不用手扶',classID=5,quizID=589;</v>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=52;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=52;</v>
-      </c>
-      <c r="H52">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6899,6 +5556,1396 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="str">
+        <f>SUBSTITUTE( REPLACE(D1,1,2,""),".","")</f>
+        <v>能抬起双手来配合穿衣服</v>
+      </c>
+      <c r="F1" t="str">
+        <f>"insert into invest_quiz_question set ShortDes='"&amp;E1&amp;"',classID="&amp;B1&amp;",quizID=589;"</f>
+        <v>insert into invest_quiz_question set ShortDes='能抬起双手来配合穿衣服',classID=1,quizID=589;</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID="&amp;H1&amp;";insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID="&amp;H1&amp;";"</f>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=1;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=1;</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E52" si="0">SUBSTITUTE( REPLACE(D2,1,2,""),".","")</f>
+        <v>当其他儿童在场玩时，能引起他的注视</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F52" si="1">"insert into invest_quiz_question set ShortDes='"&amp;E2&amp;"',classID="&amp;B2&amp;",quizID=589;"</f>
+        <v>insert into invest_quiz_question set ShortDes='当其他儿童在场玩时，能引起他的注视',classID=1,quizID=589;</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G52" si="2">"insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID="&amp;H2&amp;";insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID="&amp;H2&amp;";"</f>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=2;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=2;</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>对自己在镜子里的像很感兴趣</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='对自己在镜子里的像很感兴趣',classID=1,quizID=589;</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=3;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=3;</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>能脱袜子，但不能脱鞋子</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能脱袜子，但不能脱鞋子',classID=1,quizID=589;</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=4;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=4;</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>能独自用水杯喝水</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能独自用水杯喝水',classID=1,quizID=589;</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=5;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=5;</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>能遵从二、三种简单要求</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能遵从二、三种简单要求',classID=1,quizID=589;</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=6;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=6;</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>能自己使用勺子吃东西（可有一些漏洒）</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能自己使用勺子吃东西（可有一些漏洒）',classID=1,quizID=589;</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=7;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=7;</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>懂得亲吻玩具娃娃或玩具熊</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='懂得亲吻玩具娃娃或玩具熊',classID=1,quizID=589;</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=8;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=8;</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>能帮助收拾玩具</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能帮助收拾玩具',classID=1,quizID=589;</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=9;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=9;</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>对捉迷藏有兴趣</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='对捉迷藏有兴趣',classID=1,quizID=589;</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=10;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=10;</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>在熟悉的人那里可呆一会儿</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='在熟悉的人那里可呆一会儿',classID=1,quizID=589;</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=11;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=11;</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>能脱衣服（不一定能解扣子）</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能脱衣服（不一定能解扣子）',classID=1,quizID=589;</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=12;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=12;</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>能够摹仿周围的声音</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能够摹仿周围的声音',classID=2,quizID=589;</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=13;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=13;</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>能够摹仿两个简单的词</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能够摹仿两个简单的词',classID=2,quizID=589;</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=14;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=14;</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>在问他时，能够指出身体的一个部位</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='在问他时，能够指出身体的一个部位',classID=2,quizID=589;</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=15;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=15;</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>能主动讲出两个字的简单的词</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能主动讲出两个字的简单的词',classID=2,quizID=589;</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=16;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=16;</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>能够指出什么是鞋、衣服或玩具</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能够指出什么是鞋、衣服或玩具',classID=2,quizID=589;</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=17;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=17;</v>
+      </c>
+      <c r="H17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>能讲五个词汇</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能讲五个词汇',classID=2,quizID=589;</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=18;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=18;</v>
+      </c>
+      <c r="H18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>能够在画册上指出三种不同的东西</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能够在画册上指出三种不同的东西',classID=2,quizID=589;</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=19;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=19;</v>
+      </c>
+      <c r="H19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>能够讲出听到的个别的词</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能够讲出听到的个别的词',classID=2,quizID=589;</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=20;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=20;</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>当被问到有什么要求时能说出三个愿望</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='当被问到有什么要求时能说出三个愿望',classID=2,quizID=589;</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=21;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=21;</v>
+      </c>
+      <c r="H21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>在询问下可以讲出身边发生的三件事</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='在询问下可以讲出身边发生的三件事',classID=2,quizID=589;</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=22;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=22;</v>
+      </c>
+      <c r="H22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>能讲出两个词的短句</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能讲出两个词的短句',classID=2,quizID=589;</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=23;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=23;</v>
+      </c>
+      <c r="H23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>会翻着看画册</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='会翻着看画册',classID=2,quizID=589;</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=24;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=24;</v>
+      </c>
+      <c r="H24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>会敲打、碰击两个以上的小木块</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='会敲打、碰击两个以上的小木块',classID=3,quizID=589;</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=25;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=25;</v>
+      </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>试图摹仿涂划（在纸或其它东西上乱画）</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='试图摹仿涂划（在纸或其它东西上乱画）',classID=3,quizID=589;</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=26;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=26;</v>
+      </c>
+      <c r="H26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>会将不同形状的木块放入模板（嵌板）中适当的位置</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='会将不同形状的木块放入模板（嵌板）中适当的位置',classID=3,quizID=589;</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=27;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=27;</v>
+      </c>
+      <c r="H27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>自己用笔涂涂画画</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='自己用笔涂涂画画',classID=3,quizID=589;</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=28;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=28;</v>
+      </c>
+      <c r="H28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>能够说出玩具娃娃的四个以上的部位</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能够说出玩具娃娃的四个以上的部位',classID=3,quizID=589;</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=29;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=29;</v>
+      </c>
+      <c r="H29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>有开始使用家庭用品的迹象（如：拿勺或碗）</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='有开始使用家庭用品的迹象（如：拿勺或碗）',classID=3,quizID=589;</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=30;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=30;</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>能按照要求指出两个人</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能按照要求指出两个人',classID=3,quizID=589;</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=31;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=31;</v>
+      </c>
+      <c r="H31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>使用两个小棍子摹仿击鼓动作</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='使用两个小棍子摹仿击鼓动作',classID=3,quizID=589;</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=32;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=32;</v>
+      </c>
+      <c r="H32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>能够认识身边或画书上的七件东</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能够认识身边或画书上的七件东',classID=3,quizID=589;</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=33;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=33;</v>
+      </c>
+      <c r="H33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='',classID=3,quizID=589;</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=34;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=34;</v>
+      </c>
+      <c r="H34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>能够把三个大小不同的碗或杯子套叠起来</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能够把三个大小不同的碗或杯子套叠起来',classID=3,quizID=589;</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=35;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=35;</v>
+      </c>
+      <c r="H35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>能指出玩具娃娃的五个部分（眼睛、鼻子、手、腿、头发）</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能指出玩具娃娃的五个部分（眼睛、鼻子、手、腿、头发）',classID=3,quizID=589;</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=36;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=36;</v>
+      </c>
+      <c r="H36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>会用食指准确地触摸小的东西</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='会用食指准确地触摸小的东西',classID=4,quizID=589;</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=37;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=37;</v>
+      </c>
+      <c r="H37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>有目的的拿画笔，但不很准确</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='有目的的拿画笔，但不很准确',classID=4,quizID=589;</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=38;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=38;</v>
+      </c>
+      <c r="H38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>会摹仿把小豆子（或小扣子）丢进瓶子里</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='会摹仿把小豆子（或小扣子）丢进瓶子里',classID=4,quizID=589;</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=39;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=39;</v>
+      </c>
+      <c r="H39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>会打开盒子的盖子</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='会打开盒子的盖子',classID=4,quizID=589;</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=40;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=40;</v>
+      </c>
+      <c r="H40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>用三块小木块搭一座“塔”</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='用三块小木块搭一座“塔”',classID=4,quizID=589;</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=41;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=41;</v>
+      </c>
+      <c r="H41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>会剥糖纸（不一定能剥开）</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='会剥糖纸（不一定能剥开）',classID=4,quizID=589;</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=42;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=42;</v>
+      </c>
+      <c r="H42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3">
+        <v>7</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>能一页一页地翻书</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能一页一页地翻书',classID=4,quizID=589;</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=43;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=43;</v>
+      </c>
+      <c r="H43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>能穿三个直径约为24mm的珠子</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='能穿三个直径约为24mm的珠子',classID=4,quizID=589;</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=44;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=44;</v>
+      </c>
+      <c r="H44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="3">
+        <v>5</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>不用扶自己坐一会儿</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='不用扶自己坐一会儿',classID=5,quizID=589;</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=45;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=45;</v>
+      </c>
+      <c r="H45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>自己跑一会儿</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='自己跑一会儿',classID=5,quizID=589;</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=46;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=46;</v>
+      </c>
+      <c r="H46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
+        <v>5</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>扔球或踢球（不一定准确）</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='扔球或踢球（不一定准确）',classID=5,quizID=589;</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=47;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=47;</v>
+      </c>
+      <c r="H47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>不用扶着墙或家具，从坐在地上站起来</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='不用扶着墙或家具，从坐在地上站起来',classID=5,quizID=589;</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=48;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=48;</v>
+      </c>
+      <c r="H48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>独自跑动</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='独自跑动',classID=5,quizID=589;</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=49;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=49;</v>
+      </c>
+      <c r="H49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>扶着上楼梯（得有人跟随着）</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='扶着上楼梯（得有人跟随着）',classID=5,quizID=589;</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=50;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=50;</v>
+      </c>
+      <c r="H50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <v>5</v>
+      </c>
+      <c r="C51" s="3">
+        <v>7</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>走得很好，仅仅偶尔会跌倒</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='走得很好，仅仅偶尔会跌倒',classID=5,quizID=589;</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=51;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=51;</v>
+      </c>
+      <c r="H51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>蹲着玩，不用手扶</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into invest_quiz_question set ShortDes='蹲着玩，不用手扶',classID=5,quizID=589;</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into invest_quiz_question_choice set answertext='---是---',correctAnswerScore=1,quiz_questionID=52;insert into invest_quiz_question_choice set answertext='---否---',quiz_questionID=52;</v>
+      </c>
+      <c r="H52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="43" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E1" t="str">
@@ -8263,7 +8310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
@@ -9653,11 +9700,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:G52"/>
     </sheetView>
   </sheetViews>
@@ -11049,7 +11096,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6EC9D5C-252E-40E1-94DE-F54876E49EBF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF9474E5-C867-4784-92F3-F4D2832F72AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
